--- a/Model_MIS/MIS_PM.xlsx
+++ b/Model_MIS/MIS_PM.xlsx
@@ -8,22 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malteebner/Library/Mobile Documents/com~apple~CloudDocs/Master ETIT/10. Semester/Forschungsarbeit/Code Forschungsarbeit/Model_MIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D48F517-1235-D842-A04A-0C17AFFB89CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E1C7AC-2725-CD42-82E8-13C8774B1DB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="540" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
     <sheet name="events" sheetId="2" r:id="rId2"/>
     <sheet name="options" sheetId="3" r:id="rId3"/>
-    <sheet name="task" sheetId="4" r:id="rId4"/>
+    <sheet name="tasks" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="1282">
   <si>
     <t>Events_Description</t>
   </si>
@@ -3830,6 +3838,45 @@
   </si>
   <si>
     <t>Live Running</t>
+  </si>
+  <si>
+    <t>3 options</t>
+  </si>
+  <si>
+    <t>4 options</t>
+  </si>
+  <si>
+    <t>&gt;=2 options</t>
+  </si>
+  <si>
+    <t>&gt;=3 options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 options  </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Predecessors</t>
+  </si>
+  <si>
+    <t>5; 6</t>
+  </si>
+  <si>
+    <t>8; 9</t>
+  </si>
+  <si>
+    <t>7; 10</t>
+  </si>
+  <si>
+    <t>11; 12</t>
+  </si>
+  <si>
+    <t>11; 14</t>
+  </si>
+  <si>
+    <t>13; 15; 16</t>
   </si>
 </sst>
 </file>
@@ -3865,8 +3912,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4184,7 +4234,7 @@
   <dimension ref="A1:B299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6594,13 +6644,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2499FF65-32EF-7B44-B62B-4FFC3B892A1A}">
   <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="162.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -11292,16 +11343,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E99BA3-AC8C-544D-AADD-A1E788EFC6C6}">
-  <dimension ref="A1:G299"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="155.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" customWidth="1"/>
     <col min="7" max="7" width="153.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11309,7 +11364,7 @@
       <c r="A1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>737</v>
       </c>
       <c r="C1" t="s">
@@ -11329,11 +11384,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" t="s">
-        <v>417</v>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -11352,11 +11407,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B3" t="s">
-        <v>417</v>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -11375,11 +11430,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B4" t="s">
-        <v>417</v>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -11398,11 +11453,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>427</v>
-      </c>
-      <c r="B5" t="s">
-        <v>417</v>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -11421,11 +11476,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B6" t="s">
-        <v>417</v>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -11444,11 +11499,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B7" t="s">
-        <v>417</v>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -11467,11 +11522,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B8" t="s">
-        <v>417</v>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -11490,11 +11545,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>436</v>
-      </c>
-      <c r="B9" t="s">
-        <v>417</v>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -11513,11 +11568,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B10" t="s">
-        <v>417</v>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -11536,11 +11591,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B11" t="s">
-        <v>417</v>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -11559,11 +11614,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>443</v>
-      </c>
-      <c r="B12" t="s">
-        <v>417</v>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -11582,11 +11637,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>445</v>
-      </c>
-      <c r="B13" t="s">
-        <v>417</v>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -11605,11 +11660,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B14" t="s">
-        <v>417</v>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -11628,11 +11683,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>450</v>
-      </c>
-      <c r="B15" t="s">
-        <v>417</v>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -11651,11 +11706,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>450</v>
-      </c>
-      <c r="B16" t="s">
-        <v>422</v>
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>745</v>
@@ -11674,11 +11729,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B17" t="s">
-        <v>417</v>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -11697,11 +11752,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>452</v>
-      </c>
-      <c r="B18" t="s">
-        <v>422</v>
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -11720,11 +11775,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>452</v>
-      </c>
-      <c r="B19" t="s">
-        <v>424</v>
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -11743,11 +11798,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>452</v>
-      </c>
-      <c r="B20" t="s">
-        <v>427</v>
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -11766,11 +11821,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>454</v>
-      </c>
-      <c r="B21" t="s">
-        <v>417</v>
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -11789,11 +11844,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>454</v>
-      </c>
-      <c r="B22" t="s">
-        <v>422</v>
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -11812,11 +11867,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>454</v>
-      </c>
-      <c r="B23" t="s">
-        <v>424</v>
+      <c r="A23" s="2">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -11835,11 +11890,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>456</v>
-      </c>
-      <c r="B24" t="s">
-        <v>417</v>
+      <c r="A24" s="2">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -11858,11 +11913,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>457</v>
-      </c>
-      <c r="B25" t="s">
-        <v>417</v>
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -11881,11 +11936,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>457</v>
-      </c>
-      <c r="B26" t="s">
-        <v>422</v>
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -11904,11 +11959,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>459</v>
-      </c>
-      <c r="B27" t="s">
-        <v>417</v>
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
@@ -11927,11 +11982,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>459</v>
-      </c>
-      <c r="B28" t="s">
-        <v>422</v>
+      <c r="A28" s="2">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
@@ -11950,11 +12005,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>459</v>
-      </c>
-      <c r="B29" t="s">
-        <v>424</v>
+      <c r="A29" s="2">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -11973,11 +12028,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>461</v>
-      </c>
-      <c r="B30" t="s">
-        <v>417</v>
+      <c r="A30" s="2">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -11996,11 +12051,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>462</v>
-      </c>
-      <c r="B31" t="s">
-        <v>417</v>
+      <c r="A31" s="2">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -12019,11 +12074,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>463</v>
-      </c>
-      <c r="B32" t="s">
-        <v>417</v>
+      <c r="A32" s="2">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -12042,11 +12097,11 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B33" t="s">
-        <v>422</v>
+      <c r="A33" s="2">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -12065,11 +12120,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>465</v>
-      </c>
-      <c r="B34" t="s">
-        <v>417</v>
+      <c r="A34" s="2">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -12088,11 +12143,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>467</v>
-      </c>
-      <c r="B35" t="s">
-        <v>417</v>
+      <c r="A35" s="2">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -12111,11 +12166,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>467</v>
-      </c>
-      <c r="B36" t="s">
-        <v>422</v>
+      <c r="A36" s="2">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
@@ -12134,11 +12189,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>467</v>
-      </c>
-      <c r="B37" t="s">
-        <v>424</v>
+      <c r="A37" s="2">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
@@ -12157,11 +12212,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>468</v>
-      </c>
-      <c r="B38" t="s">
-        <v>417</v>
+      <c r="A38" s="2">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -12180,11 +12235,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>469</v>
-      </c>
-      <c r="B39" t="s">
-        <v>417</v>
+      <c r="A39" s="2">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
@@ -12203,11 +12258,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>469</v>
-      </c>
-      <c r="B40" t="s">
-        <v>422</v>
+      <c r="A40" s="2">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
@@ -12226,11 +12281,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>469</v>
-      </c>
-      <c r="B41" t="s">
-        <v>424</v>
+      <c r="A41" s="2">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>49</v>
@@ -12249,11 +12304,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>471</v>
-      </c>
-      <c r="B42" t="s">
-        <v>417</v>
+      <c r="A42" s="2">
+        <v>32</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
@@ -12272,11 +12327,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>471</v>
-      </c>
-      <c r="B43" t="s">
-        <v>422</v>
+      <c r="A43" s="2">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
@@ -12295,11 +12350,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>471</v>
-      </c>
-      <c r="B44" t="s">
-        <v>424</v>
+      <c r="A44" s="2">
+        <v>32</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
@@ -12318,11 +12373,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>472</v>
-      </c>
-      <c r="B45" t="s">
-        <v>417</v>
+      <c r="A45" s="2">
+        <v>33</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
@@ -12341,11 +12396,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>472</v>
-      </c>
-      <c r="B46" t="s">
-        <v>422</v>
+      <c r="A46" s="2">
+        <v>33</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
@@ -12364,11 +12419,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>473</v>
-      </c>
-      <c r="B47" t="s">
-        <v>417</v>
+      <c r="A47" s="2">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -12387,11 +12442,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>474</v>
-      </c>
-      <c r="B48" t="s">
-        <v>417</v>
+      <c r="A48" s="2">
+        <v>35</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
@@ -12410,11 +12465,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>475</v>
-      </c>
-      <c r="B49" t="s">
-        <v>417</v>
+      <c r="A49" s="2">
+        <v>36</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -12433,11 +12488,11 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>475</v>
-      </c>
-      <c r="B50" t="s">
-        <v>422</v>
+      <c r="A50" s="2">
+        <v>36</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
       </c>
       <c r="C50" t="s">
         <v>64</v>
@@ -12456,11 +12511,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>477</v>
-      </c>
-      <c r="B51" t="s">
-        <v>417</v>
+      <c r="A51" s="2">
+        <v>37</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
@@ -12479,11 +12534,11 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>478</v>
-      </c>
-      <c r="B52" t="s">
-        <v>417</v>
+      <c r="A52" s="2">
+        <v>38</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -12502,11 +12557,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>479</v>
-      </c>
-      <c r="B53" t="s">
-        <v>417</v>
+      <c r="A53" s="2">
+        <v>39</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>69</v>
@@ -12525,11 +12580,11 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>479</v>
-      </c>
-      <c r="B54" t="s">
-        <v>422</v>
+      <c r="A54" s="2">
+        <v>39</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
       </c>
       <c r="C54" t="s">
         <v>70</v>
@@ -12548,11 +12603,11 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>481</v>
-      </c>
-      <c r="B55" t="s">
-        <v>417</v>
+      <c r="A55" s="2">
+        <v>40</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
       </c>
       <c r="C55" t="s">
         <v>72</v>
@@ -12571,11 +12626,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>483</v>
-      </c>
-      <c r="B56" t="s">
-        <v>417</v>
+      <c r="A56" s="2">
+        <v>41</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>76</v>
@@ -12594,11 +12649,11 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>483</v>
-      </c>
-      <c r="B57" t="s">
-        <v>422</v>
+      <c r="A57" s="2">
+        <v>41</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>74</v>
@@ -12617,11 +12672,11 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>483</v>
-      </c>
-      <c r="B58" t="s">
-        <v>424</v>
+      <c r="A58" s="2">
+        <v>41</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3</v>
       </c>
       <c r="C58" t="s">
         <v>75</v>
@@ -12640,11 +12695,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>485</v>
-      </c>
-      <c r="B59" t="s">
-        <v>417</v>
+      <c r="A59" s="2">
+        <v>42</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>78</v>
@@ -12663,11 +12718,11 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>485</v>
-      </c>
-      <c r="B60" t="s">
-        <v>422</v>
+      <c r="A60" s="2">
+        <v>42</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2</v>
       </c>
       <c r="C60" t="s">
         <v>79</v>
@@ -12686,11 +12741,11 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>487</v>
-      </c>
-      <c r="B61" t="s">
-        <v>417</v>
+      <c r="A61" s="2">
+        <v>43</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
       </c>
       <c r="C61" t="s">
         <v>81</v>
@@ -12709,11 +12764,11 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>489</v>
-      </c>
-      <c r="B62" t="s">
-        <v>417</v>
+      <c r="A62" s="2">
+        <v>44</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>83</v>
@@ -12732,11 +12787,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>489</v>
-      </c>
-      <c r="B63" t="s">
-        <v>422</v>
+      <c r="A63" s="2">
+        <v>44</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
       </c>
       <c r="C63" t="s">
         <v>84</v>
@@ -12755,11 +12810,11 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>489</v>
-      </c>
-      <c r="B64" t="s">
-        <v>424</v>
+      <c r="A64" s="2">
+        <v>44</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>85</v>
@@ -12778,11 +12833,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>490</v>
-      </c>
-      <c r="B65" t="s">
-        <v>417</v>
+      <c r="A65" s="2">
+        <v>45</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
       </c>
       <c r="C65" t="s">
         <v>88</v>
@@ -12801,11 +12856,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>490</v>
-      </c>
-      <c r="B66" t="s">
-        <v>422</v>
+      <c r="A66" s="2">
+        <v>45</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2</v>
       </c>
       <c r="C66" t="s">
         <v>87</v>
@@ -12824,11 +12879,11 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>491</v>
-      </c>
-      <c r="B67" t="s">
-        <v>417</v>
+      <c r="A67" s="2">
+        <v>46</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
       </c>
       <c r="C67" t="s">
         <v>90</v>
@@ -12847,11 +12902,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>491</v>
-      </c>
-      <c r="B68" t="s">
-        <v>422</v>
+      <c r="A68" s="2">
+        <v>46</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2</v>
       </c>
       <c r="C68" t="s">
         <v>91</v>
@@ -12870,11 +12925,11 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>492</v>
-      </c>
-      <c r="B69" t="s">
-        <v>417</v>
+      <c r="A69" s="2">
+        <v>47</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>93</v>
@@ -12893,11 +12948,11 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>494</v>
-      </c>
-      <c r="B70" t="s">
-        <v>417</v>
+      <c r="A70" s="2">
+        <v>48</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
       </c>
       <c r="C70" t="s">
         <v>843</v>
@@ -12916,11 +12971,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>494</v>
-      </c>
-      <c r="B71" t="s">
-        <v>422</v>
+      <c r="A71" s="2">
+        <v>48</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2</v>
       </c>
       <c r="C71" t="s">
         <v>88</v>
@@ -12939,11 +12994,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>494</v>
-      </c>
-      <c r="B72" t="s">
-        <v>424</v>
+      <c r="A72" s="2">
+        <v>48</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3</v>
       </c>
       <c r="C72" t="s">
         <v>96</v>
@@ -12962,11 +13017,11 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>494</v>
-      </c>
-      <c r="B73" t="s">
-        <v>427</v>
+      <c r="A73" s="2">
+        <v>48</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>97</v>
@@ -12985,11 +13040,11 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>496</v>
-      </c>
-      <c r="B74" t="s">
-        <v>417</v>
+      <c r="A74" s="2">
+        <v>49</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
       </c>
       <c r="C74" t="s">
         <v>99</v>
@@ -13008,11 +13063,11 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>498</v>
-      </c>
-      <c r="B75" t="s">
-        <v>417</v>
+      <c r="A75" s="2">
+        <v>50</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
       </c>
       <c r="C75" t="s">
         <v>101</v>
@@ -13031,11 +13086,11 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>498</v>
-      </c>
-      <c r="B76" t="s">
-        <v>422</v>
+      <c r="A76" s="2">
+        <v>50</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2</v>
       </c>
       <c r="C76" t="s">
         <v>102</v>
@@ -13054,11 +13109,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>499</v>
-      </c>
-      <c r="B77" t="s">
-        <v>417</v>
+      <c r="A77" s="2">
+        <v>51</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
       </c>
       <c r="C77" t="s">
         <v>104</v>
@@ -13077,11 +13132,11 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>501</v>
-      </c>
-      <c r="B78" t="s">
-        <v>417</v>
+      <c r="A78" s="2">
+        <v>52</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
       </c>
       <c r="C78" t="s">
         <v>106</v>
@@ -13100,11 +13155,11 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>501</v>
-      </c>
-      <c r="B79" t="s">
-        <v>422</v>
+      <c r="A79" s="2">
+        <v>52</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2</v>
       </c>
       <c r="C79" t="s">
         <v>107</v>
@@ -13123,11 +13178,11 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>503</v>
-      </c>
-      <c r="B80" t="s">
-        <v>417</v>
+      <c r="A80" s="2">
+        <v>53</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
       </c>
       <c r="C80" t="s">
         <v>109</v>
@@ -13146,11 +13201,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>504</v>
-      </c>
-      <c r="B81" t="s">
-        <v>417</v>
+      <c r="A81" s="2">
+        <v>54</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
       </c>
       <c r="C81" t="s">
         <v>111</v>
@@ -13169,11 +13224,11 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>505</v>
-      </c>
-      <c r="B82" t="s">
-        <v>417</v>
+      <c r="A82" s="2">
+        <v>55</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
       </c>
       <c r="C82" t="s">
         <v>113</v>
@@ -13192,11 +13247,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>506</v>
-      </c>
-      <c r="B83" t="s">
-        <v>417</v>
+      <c r="A83" s="2">
+        <v>56</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
       </c>
       <c r="C83" t="s">
         <v>116</v>
@@ -13215,11 +13270,11 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>506</v>
-      </c>
-      <c r="B84" t="s">
-        <v>422</v>
+      <c r="A84" s="2">
+        <v>56</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2</v>
       </c>
       <c r="C84" t="s">
         <v>115</v>
@@ -13238,11 +13293,11 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>508</v>
-      </c>
-      <c r="B85" t="s">
-        <v>417</v>
+      <c r="A85" s="2">
+        <v>57</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
@@ -13261,11 +13316,11 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>511</v>
-      </c>
-      <c r="B86" t="s">
-        <v>417</v>
+      <c r="A86" s="2">
+        <v>58</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
       </c>
       <c r="C86" t="s">
         <v>119</v>
@@ -13284,11 +13339,11 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>513</v>
-      </c>
-      <c r="B87" t="s">
-        <v>417</v>
+      <c r="A87" s="2">
+        <v>76</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
       </c>
       <c r="C87" t="s">
         <v>121</v>
@@ -13307,11 +13362,11 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>513</v>
-      </c>
-      <c r="B88" t="s">
-        <v>422</v>
+      <c r="A88" s="2">
+        <v>76</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2</v>
       </c>
       <c r="C88" t="s">
         <v>122</v>
@@ -13330,11 +13385,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>516</v>
-      </c>
-      <c r="B89" t="s">
-        <v>417</v>
+      <c r="A89" s="2">
+        <v>77</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1</v>
       </c>
       <c r="C89" t="s">
         <v>124</v>
@@ -13353,11 +13408,11 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>518</v>
-      </c>
-      <c r="B90" t="s">
-        <v>417</v>
+      <c r="A90" s="2">
+        <v>78</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
@@ -13376,11 +13431,11 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>519</v>
-      </c>
-      <c r="B91" t="s">
-        <v>417</v>
+      <c r="A91" s="2">
+        <v>79</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
       </c>
       <c r="C91" t="s">
         <v>128</v>
@@ -13399,11 +13454,11 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>519</v>
-      </c>
-      <c r="B92" t="s">
-        <v>422</v>
+      <c r="A92" s="2">
+        <v>79</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2</v>
       </c>
       <c r="C92" t="s">
         <v>129</v>
@@ -13422,11 +13477,11 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>519</v>
-      </c>
-      <c r="B93" t="s">
-        <v>424</v>
+      <c r="A93" s="2">
+        <v>79</v>
+      </c>
+      <c r="B93" s="2">
+        <v>3</v>
       </c>
       <c r="C93" t="s">
         <v>127</v>
@@ -13445,11 +13500,11 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>522</v>
-      </c>
-      <c r="B94" t="s">
-        <v>417</v>
+      <c r="A94" s="2">
+        <v>80</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
       </c>
       <c r="C94" t="s">
         <v>131</v>
@@ -13468,11 +13523,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>525</v>
-      </c>
-      <c r="B95" t="s">
-        <v>417</v>
+      <c r="A95" s="2">
+        <v>81</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
@@ -13491,11 +13546,11 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>528</v>
-      </c>
-      <c r="B96" t="s">
-        <v>417</v>
+      <c r="A96" s="2">
+        <v>82</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
       </c>
       <c r="C96" t="s">
         <v>134</v>
@@ -13514,11 +13569,11 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>528</v>
-      </c>
-      <c r="B97" t="s">
-        <v>422</v>
+      <c r="A97" s="2">
+        <v>82</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2</v>
       </c>
       <c r="C97" t="s">
         <v>135</v>
@@ -13537,11 +13592,11 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>528</v>
-      </c>
-      <c r="B98" t="s">
-        <v>424</v>
+      <c r="A98" s="2">
+        <v>82</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3</v>
       </c>
       <c r="C98" t="s">
         <v>136</v>
@@ -13560,11 +13615,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>530</v>
-      </c>
-      <c r="B99" t="s">
-        <v>417</v>
+      <c r="A99" s="2">
+        <v>83</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1</v>
       </c>
       <c r="C99" t="s">
         <v>15</v>
@@ -13583,11 +13638,11 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>532</v>
-      </c>
-      <c r="B100" t="s">
-        <v>417</v>
+      <c r="A100" s="2">
+        <v>84</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1</v>
       </c>
       <c r="C100" t="s">
         <v>15</v>
@@ -13606,11 +13661,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>533</v>
-      </c>
-      <c r="B101" t="s">
-        <v>417</v>
+      <c r="A101" s="2">
+        <v>85</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>15</v>
@@ -13629,11 +13684,11 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>534</v>
-      </c>
-      <c r="B102" t="s">
-        <v>417</v>
+      <c r="A102" s="2">
+        <v>86</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
       </c>
       <c r="C102" t="s">
         <v>15</v>
@@ -13652,11 +13707,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>535</v>
-      </c>
-      <c r="B103" t="s">
-        <v>417</v>
+      <c r="A103" s="2">
+        <v>87</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1</v>
       </c>
       <c r="C103" t="s">
         <v>142</v>
@@ -13675,11 +13730,11 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>535</v>
-      </c>
-      <c r="B104" t="s">
-        <v>422</v>
+      <c r="A104" s="2">
+        <v>87</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2</v>
       </c>
       <c r="C104" t="s">
         <v>143</v>
@@ -13698,11 +13753,11 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>537</v>
-      </c>
-      <c r="B105" t="s">
-        <v>417</v>
+      <c r="A105" s="2">
+        <v>88</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
@@ -13721,11 +13776,11 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>539</v>
-      </c>
-      <c r="B106" t="s">
-        <v>417</v>
+      <c r="A106" s="2">
+        <v>89</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
       </c>
       <c r="C106" t="s">
         <v>146</v>
@@ -13744,11 +13799,11 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>539</v>
-      </c>
-      <c r="B107" t="s">
-        <v>422</v>
+      <c r="A107" s="2">
+        <v>89</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2</v>
       </c>
       <c r="C107" t="s">
         <v>147</v>
@@ -13767,11 +13822,11 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>539</v>
-      </c>
-      <c r="B108" t="s">
-        <v>424</v>
+      <c r="A108" s="2">
+        <v>89</v>
+      </c>
+      <c r="B108" s="2">
+        <v>3</v>
       </c>
       <c r="C108" t="s">
         <v>148</v>
@@ -13790,11 +13845,11 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>540</v>
-      </c>
-      <c r="B109" t="s">
-        <v>417</v>
+      <c r="A109" s="2">
+        <v>90</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
       </c>
       <c r="C109" t="s">
         <v>150</v>
@@ -13813,11 +13868,11 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>540</v>
-      </c>
-      <c r="B110" t="s">
-        <v>422</v>
+      <c r="A110" s="2">
+        <v>90</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2</v>
       </c>
       <c r="C110" t="s">
         <v>151</v>
@@ -13836,11 +13891,11 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>540</v>
-      </c>
-      <c r="B111" t="s">
-        <v>424</v>
+      <c r="A111" s="2">
+        <v>90</v>
+      </c>
+      <c r="B111" s="2">
+        <v>3</v>
       </c>
       <c r="C111" t="s">
         <v>152</v>
@@ -13859,11 +13914,11 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>542</v>
-      </c>
-      <c r="B112" t="s">
-        <v>417</v>
+      <c r="A112" s="2">
+        <v>91</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
       </c>
       <c r="C112" t="s">
         <v>154</v>
@@ -13882,11 +13937,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>542</v>
-      </c>
-      <c r="B113" t="s">
-        <v>422</v>
+      <c r="A113" s="2">
+        <v>91</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2</v>
       </c>
       <c r="C113" t="s">
         <v>156</v>
@@ -13905,11 +13960,11 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>542</v>
-      </c>
-      <c r="B114" t="s">
-        <v>424</v>
+      <c r="A114" s="2">
+        <v>91</v>
+      </c>
+      <c r="B114" s="2">
+        <v>3</v>
       </c>
       <c r="C114" t="s">
         <v>155</v>
@@ -13928,11 +13983,11 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>544</v>
-      </c>
-      <c r="B115" t="s">
-        <v>417</v>
+      <c r="A115" s="2">
+        <v>92</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
       </c>
       <c r="C115" t="s">
         <v>158</v>
@@ -13951,11 +14006,11 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>545</v>
-      </c>
-      <c r="B116" t="s">
-        <v>417</v>
+      <c r="A116" s="2">
+        <v>93</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
@@ -13974,11 +14029,11 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>547</v>
-      </c>
-      <c r="B117" t="s">
-        <v>417</v>
+      <c r="A117" s="2">
+        <v>94</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
@@ -13997,11 +14052,11 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>548</v>
-      </c>
-      <c r="B118" t="s">
-        <v>417</v>
+      <c r="A118" s="2">
+        <v>95</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1</v>
       </c>
       <c r="C118" t="s">
         <v>162</v>
@@ -14020,11 +14075,11 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>548</v>
-      </c>
-      <c r="B119" t="s">
-        <v>422</v>
+      <c r="A119" s="2">
+        <v>95</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2</v>
       </c>
       <c r="C119" t="s">
         <v>163</v>
@@ -14043,11 +14098,11 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>549</v>
-      </c>
-      <c r="B120" t="s">
-        <v>417</v>
+      <c r="A120" s="2">
+        <v>96</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
@@ -14066,11 +14121,11 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>550</v>
-      </c>
-      <c r="B121" t="s">
-        <v>417</v>
+      <c r="A121" s="2">
+        <v>97</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
@@ -14089,11 +14144,11 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>551</v>
-      </c>
-      <c r="B122" t="s">
-        <v>417</v>
+      <c r="A122" s="2">
+        <v>98</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1</v>
       </c>
       <c r="C122" t="s">
         <v>168</v>
@@ -14112,11 +14167,11 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>551</v>
-      </c>
-      <c r="B123" t="s">
-        <v>422</v>
+      <c r="A123" s="2">
+        <v>98</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2</v>
       </c>
       <c r="C123" t="s">
         <v>169</v>
@@ -14135,11 +14190,11 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>551</v>
-      </c>
-      <c r="B124" t="s">
-        <v>424</v>
+      <c r="A124" s="2">
+        <v>98</v>
+      </c>
+      <c r="B124" s="2">
+        <v>3</v>
       </c>
       <c r="C124" t="s">
         <v>167</v>
@@ -14158,11 +14213,11 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>553</v>
-      </c>
-      <c r="B125" t="s">
-        <v>417</v>
+      <c r="A125" s="2">
+        <v>99</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1</v>
       </c>
       <c r="C125" t="s">
         <v>15</v>
@@ -14181,11 +14236,11 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>555</v>
-      </c>
-      <c r="B126" t="s">
-        <v>417</v>
+      <c r="A126" s="2">
+        <v>100</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1</v>
       </c>
       <c r="C126" t="s">
         <v>172</v>
@@ -14204,11 +14259,11 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>555</v>
-      </c>
-      <c r="B127" t="s">
-        <v>422</v>
+      <c r="A127" s="2">
+        <v>100</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2</v>
       </c>
       <c r="C127" t="s">
         <v>173</v>
@@ -14227,11 +14282,11 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>556</v>
-      </c>
-      <c r="B128" t="s">
-        <v>417</v>
+      <c r="A128" s="2">
+        <v>101</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
@@ -14250,11 +14305,11 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>557</v>
-      </c>
-      <c r="B129" t="s">
-        <v>417</v>
+      <c r="A129" s="2">
+        <v>102</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1</v>
       </c>
       <c r="C129" t="s">
         <v>177</v>
@@ -14273,11 +14328,11 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>557</v>
-      </c>
-      <c r="B130" t="s">
-        <v>422</v>
+      <c r="A130" s="2">
+        <v>102</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2</v>
       </c>
       <c r="C130" t="s">
         <v>178</v>
@@ -14296,11 +14351,11 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>557</v>
-      </c>
-      <c r="B131" t="s">
-        <v>424</v>
+      <c r="A131" s="2">
+        <v>102</v>
+      </c>
+      <c r="B131" s="2">
+        <v>3</v>
       </c>
       <c r="C131" t="s">
         <v>176</v>
@@ -14319,11 +14374,11 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>559</v>
-      </c>
-      <c r="B132" t="s">
-        <v>417</v>
+      <c r="A132" s="2">
+        <v>103</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1</v>
       </c>
       <c r="C132" t="s">
         <v>180</v>
@@ -14342,11 +14397,11 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>559</v>
-      </c>
-      <c r="B133" t="s">
-        <v>422</v>
+      <c r="A133" s="2">
+        <v>103</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2</v>
       </c>
       <c r="C133" t="s">
         <v>176</v>
@@ -14365,11 +14420,11 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>560</v>
-      </c>
-      <c r="B134" t="s">
-        <v>417</v>
+      <c r="A134" s="2">
+        <v>104</v>
+      </c>
+      <c r="B134" s="2">
+        <v>1</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
@@ -14388,11 +14443,11 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>561</v>
-      </c>
-      <c r="B135" t="s">
-        <v>417</v>
+      <c r="A135" s="2">
+        <v>105</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1</v>
       </c>
       <c r="C135" t="s">
         <v>183</v>
@@ -14411,11 +14466,11 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>564</v>
-      </c>
-      <c r="B136" t="s">
-        <v>417</v>
+      <c r="A136" s="2">
+        <v>106</v>
+      </c>
+      <c r="B136" s="2">
+        <v>1</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
@@ -14434,11 +14489,11 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>566</v>
-      </c>
-      <c r="B137" t="s">
-        <v>417</v>
+      <c r="A137" s="2">
+        <v>107</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1</v>
       </c>
       <c r="C137" t="s">
         <v>186</v>
@@ -14457,11 +14512,11 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>568</v>
-      </c>
-      <c r="B138" t="s">
-        <v>417</v>
+      <c r="A138" s="2">
+        <v>108</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1</v>
       </c>
       <c r="C138" t="s">
         <v>188</v>
@@ -14480,11 +14535,11 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>569</v>
-      </c>
-      <c r="B139" t="s">
-        <v>417</v>
+      <c r="A139" s="2">
+        <v>109</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1</v>
       </c>
       <c r="C139" t="s">
         <v>190</v>
@@ -14503,11 +14558,11 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>571</v>
-      </c>
-      <c r="B140" t="s">
-        <v>417</v>
+      <c r="A140" s="2">
+        <v>110</v>
+      </c>
+      <c r="B140" s="2">
+        <v>1</v>
       </c>
       <c r="C140" t="s">
         <v>192</v>
@@ -14526,11 +14581,11 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>573</v>
-      </c>
-      <c r="B141" t="s">
-        <v>417</v>
+      <c r="A141" s="2">
+        <v>111</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
@@ -14549,11 +14604,11 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>575</v>
-      </c>
-      <c r="B142" t="s">
-        <v>417</v>
+      <c r="A142" s="2">
+        <v>112</v>
+      </c>
+      <c r="B142" s="2">
+        <v>1</v>
       </c>
       <c r="C142" t="s">
         <v>196</v>
@@ -14572,11 +14627,11 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>575</v>
-      </c>
-      <c r="B143" t="s">
-        <v>422</v>
+      <c r="A143" s="2">
+        <v>112</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2</v>
       </c>
       <c r="C143" t="s">
         <v>195</v>
@@ -14595,11 +14650,11 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>577</v>
-      </c>
-      <c r="B144" t="s">
-        <v>417</v>
+      <c r="A144" s="2">
+        <v>113</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1</v>
       </c>
       <c r="C144" t="s">
         <v>198</v>
@@ -14618,11 +14673,11 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>579</v>
-      </c>
-      <c r="B145" t="s">
-        <v>417</v>
+      <c r="A145" s="2">
+        <v>114</v>
+      </c>
+      <c r="B145" s="2">
+        <v>1</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
@@ -14641,11 +14696,11 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>581</v>
-      </c>
-      <c r="B146" t="s">
-        <v>417</v>
+      <c r="A146" s="2">
+        <v>115</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
@@ -14664,11 +14719,11 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>583</v>
-      </c>
-      <c r="B147" t="s">
-        <v>417</v>
+      <c r="A147" s="2">
+        <v>119</v>
+      </c>
+      <c r="B147" s="2">
+        <v>1</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
@@ -14687,11 +14742,11 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>585</v>
-      </c>
-      <c r="B148" t="s">
-        <v>417</v>
+      <c r="A148" s="2">
+        <v>120</v>
+      </c>
+      <c r="B148" s="2">
+        <v>1</v>
       </c>
       <c r="C148" t="s">
         <v>988</v>
@@ -14710,11 +14765,11 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>585</v>
-      </c>
-      <c r="B149" t="s">
-        <v>422</v>
+      <c r="A149" s="2">
+        <v>120</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2</v>
       </c>
       <c r="C149" t="s">
         <v>203</v>
@@ -14733,11 +14788,11 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>585</v>
-      </c>
-      <c r="B150" t="s">
-        <v>424</v>
+      <c r="A150" s="2">
+        <v>120</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3</v>
       </c>
       <c r="C150" t="s">
         <v>205</v>
@@ -14756,11 +14811,11 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>587</v>
-      </c>
-      <c r="B151" t="s">
-        <v>417</v>
+      <c r="A151" s="2">
+        <v>121</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1</v>
       </c>
       <c r="C151" t="s">
         <v>207</v>
@@ -14779,11 +14834,11 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>589</v>
-      </c>
-      <c r="B152" t="s">
-        <v>417</v>
+      <c r="A152" s="2">
+        <v>122</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1</v>
       </c>
       <c r="C152" t="s">
         <v>209</v>
@@ -14802,11 +14857,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>589</v>
-      </c>
-      <c r="B153" t="s">
-        <v>422</v>
+      <c r="A153" s="2">
+        <v>122</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2</v>
       </c>
       <c r="C153" t="s">
         <v>999</v>
@@ -14825,11 +14880,11 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>591</v>
-      </c>
-      <c r="B154" t="s">
-        <v>417</v>
+      <c r="A154" s="2">
+        <v>123</v>
+      </c>
+      <c r="B154" s="2">
+        <v>1</v>
       </c>
       <c r="C154" t="s">
         <v>212</v>
@@ -14848,11 +14903,11 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>591</v>
-      </c>
-      <c r="B155" t="s">
-        <v>422</v>
+      <c r="A155" s="2">
+        <v>123</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2</v>
       </c>
       <c r="C155" t="s">
         <v>213</v>
@@ -14871,11 +14926,11 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>591</v>
-      </c>
-      <c r="B156" t="s">
-        <v>424</v>
+      <c r="A156" s="2">
+        <v>123</v>
+      </c>
+      <c r="B156" s="2">
+        <v>3</v>
       </c>
       <c r="C156" t="s">
         <v>214</v>
@@ -14894,11 +14949,11 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>591</v>
-      </c>
-      <c r="B157" t="s">
-        <v>427</v>
+      <c r="A157" s="2">
+        <v>123</v>
+      </c>
+      <c r="B157" s="2">
+        <v>4</v>
       </c>
       <c r="C157" t="s">
         <v>215</v>
@@ -14917,11 +14972,11 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>593</v>
-      </c>
-      <c r="B158" t="s">
-        <v>417</v>
+      <c r="A158" s="2">
+        <v>124</v>
+      </c>
+      <c r="B158" s="2">
+        <v>1</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
@@ -14940,11 +14995,11 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>594</v>
-      </c>
-      <c r="B159" t="s">
-        <v>417</v>
+      <c r="A159" s="2">
+        <v>125</v>
+      </c>
+      <c r="B159" s="2">
+        <v>1</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
@@ -14963,11 +15018,11 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>595</v>
-      </c>
-      <c r="B160" t="s">
-        <v>417</v>
+      <c r="A160" s="2">
+        <v>126</v>
+      </c>
+      <c r="B160" s="2">
+        <v>1</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
@@ -14986,11 +15041,11 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>596</v>
-      </c>
-      <c r="B161" t="s">
-        <v>417</v>
+      <c r="A161" s="2">
+        <v>127</v>
+      </c>
+      <c r="B161" s="2">
+        <v>1</v>
       </c>
       <c r="C161" t="s">
         <v>15</v>
@@ -15009,11 +15064,11 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>598</v>
-      </c>
-      <c r="B162" t="s">
-        <v>417</v>
+      <c r="A162" s="2">
+        <v>128</v>
+      </c>
+      <c r="B162" s="2">
+        <v>1</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
@@ -15032,11 +15087,11 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>600</v>
-      </c>
-      <c r="B163" t="s">
-        <v>417</v>
+      <c r="A163" s="2">
+        <v>132</v>
+      </c>
+      <c r="B163" s="2">
+        <v>1</v>
       </c>
       <c r="C163" t="s">
         <v>222</v>
@@ -15055,11 +15110,11 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>600</v>
-      </c>
-      <c r="B164" t="s">
-        <v>422</v>
+      <c r="A164" s="2">
+        <v>132</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2</v>
       </c>
       <c r="C164" t="s">
         <v>223</v>
@@ -15078,11 +15133,11 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>602</v>
-      </c>
-      <c r="B165" t="s">
-        <v>417</v>
+      <c r="A165" s="2">
+        <v>133</v>
+      </c>
+      <c r="B165" s="2">
+        <v>1</v>
       </c>
       <c r="C165" t="s">
         <v>225</v>
@@ -15101,11 +15156,11 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>604</v>
-      </c>
-      <c r="B166" t="s">
-        <v>417</v>
+      <c r="A166" s="2">
+        <v>137</v>
+      </c>
+      <c r="B166" s="2">
+        <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>227</v>
@@ -15124,11 +15179,11 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>604</v>
-      </c>
-      <c r="B167" t="s">
-        <v>422</v>
+      <c r="A167" s="2">
+        <v>137</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2</v>
       </c>
       <c r="C167" t="s">
         <v>228</v>
@@ -15147,11 +15202,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>607</v>
-      </c>
-      <c r="B168" t="s">
-        <v>417</v>
+      <c r="A168" s="2">
+        <v>138</v>
+      </c>
+      <c r="B168" s="2">
+        <v>1</v>
       </c>
       <c r="C168" t="s">
         <v>231</v>
@@ -15170,11 +15225,11 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>607</v>
-      </c>
-      <c r="B169" t="s">
-        <v>422</v>
+      <c r="A169" s="2">
+        <v>138</v>
+      </c>
+      <c r="B169" s="2">
+        <v>2</v>
       </c>
       <c r="C169" t="s">
         <v>230</v>
@@ -15193,11 +15248,11 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>609</v>
-      </c>
-      <c r="B170" t="s">
-        <v>417</v>
+      <c r="A170" s="2">
+        <v>139</v>
+      </c>
+      <c r="B170" s="2">
+        <v>1</v>
       </c>
       <c r="C170" t="s">
         <v>234</v>
@@ -15216,11 +15271,11 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>609</v>
-      </c>
-      <c r="B171" t="s">
-        <v>422</v>
+      <c r="A171" s="2">
+        <v>139</v>
+      </c>
+      <c r="B171" s="2">
+        <v>2</v>
       </c>
       <c r="C171" t="s">
         <v>233</v>
@@ -15239,11 +15294,11 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>610</v>
-      </c>
-      <c r="B172" t="s">
-        <v>417</v>
+      <c r="A172" s="2">
+        <v>140</v>
+      </c>
+      <c r="B172" s="2">
+        <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
@@ -15262,11 +15317,11 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>612</v>
-      </c>
-      <c r="B173" t="s">
-        <v>417</v>
+      <c r="A173" s="2">
+        <v>141</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1</v>
       </c>
       <c r="C173" t="s">
         <v>237</v>
@@ -15285,11 +15340,11 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>614</v>
-      </c>
-      <c r="B174" t="s">
-        <v>417</v>
+      <c r="A174" s="2">
+        <v>142</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -15308,11 +15363,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>617</v>
-      </c>
-      <c r="B175" t="s">
-        <v>417</v>
+      <c r="A175" s="2">
+        <v>143</v>
+      </c>
+      <c r="B175" s="2">
+        <v>1</v>
       </c>
       <c r="C175" t="s">
         <v>240</v>
@@ -15331,11 +15386,11 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>619</v>
-      </c>
-      <c r="B176" t="s">
-        <v>417</v>
+      <c r="A176" s="2">
+        <v>144</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1</v>
       </c>
       <c r="C176" t="s">
         <v>242</v>
@@ -15354,11 +15409,11 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>621</v>
-      </c>
-      <c r="B177" t="s">
-        <v>417</v>
+      <c r="A177" s="2">
+        <v>145</v>
+      </c>
+      <c r="B177" s="2">
+        <v>1</v>
       </c>
       <c r="C177" t="s">
         <v>15</v>
@@ -15377,11 +15432,11 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>623</v>
-      </c>
-      <c r="B178" t="s">
-        <v>417</v>
+      <c r="A178" s="2">
+        <v>147</v>
+      </c>
+      <c r="B178" s="2">
+        <v>1</v>
       </c>
       <c r="C178" t="s">
         <v>245</v>
@@ -15400,11 +15455,11 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>623</v>
-      </c>
-      <c r="B179" t="s">
-        <v>422</v>
+      <c r="A179" s="2">
+        <v>147</v>
+      </c>
+      <c r="B179" s="2">
+        <v>2</v>
       </c>
       <c r="C179" t="s">
         <v>246</v>
@@ -15423,11 +15478,11 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>623</v>
-      </c>
-      <c r="B180" t="s">
-        <v>424</v>
+      <c r="A180" s="2">
+        <v>147</v>
+      </c>
+      <c r="B180" s="2">
+        <v>3</v>
       </c>
       <c r="C180" t="s">
         <v>247</v>
@@ -15446,11 +15501,11 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>627</v>
-      </c>
-      <c r="B181" t="s">
-        <v>417</v>
+      <c r="A181" s="2">
+        <v>148</v>
+      </c>
+      <c r="B181" s="2">
+        <v>1</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
@@ -15469,11 +15524,11 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>628</v>
-      </c>
-      <c r="B182" t="s">
-        <v>417</v>
+      <c r="A182" s="2">
+        <v>149</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1</v>
       </c>
       <c r="C182" t="s">
         <v>250</v>
@@ -15492,11 +15547,11 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>629</v>
-      </c>
-      <c r="B183" t="s">
-        <v>417</v>
+      <c r="A183" s="2">
+        <v>150</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1</v>
       </c>
       <c r="C183" t="s">
         <v>252</v>
@@ -15515,11 +15570,11 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>629</v>
-      </c>
-      <c r="B184" t="s">
-        <v>422</v>
+      <c r="A184" s="2">
+        <v>150</v>
+      </c>
+      <c r="B184" s="2">
+        <v>2</v>
       </c>
       <c r="C184" t="s">
         <v>253</v>
@@ -15538,11 +15593,11 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>630</v>
-      </c>
-      <c r="B185" t="s">
-        <v>417</v>
+      <c r="A185" s="2">
+        <v>152</v>
+      </c>
+      <c r="B185" s="2">
+        <v>1</v>
       </c>
       <c r="C185" t="s">
         <v>255</v>
@@ -15561,11 +15616,11 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>632</v>
-      </c>
-      <c r="B186" t="s">
-        <v>417</v>
+      <c r="A186" s="2">
+        <v>154</v>
+      </c>
+      <c r="B186" s="2">
+        <v>1</v>
       </c>
       <c r="C186" t="s">
         <v>258</v>
@@ -15584,11 +15639,11 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>632</v>
-      </c>
-      <c r="B187" t="s">
-        <v>422</v>
+      <c r="A187" s="2">
+        <v>154</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2</v>
       </c>
       <c r="C187" t="s">
         <v>257</v>
@@ -15607,11 +15662,11 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>635</v>
-      </c>
-      <c r="B188" t="s">
-        <v>417</v>
+      <c r="A188" s="2">
+        <v>155</v>
+      </c>
+      <c r="B188" s="2">
+        <v>1</v>
       </c>
       <c r="C188" t="s">
         <v>262</v>
@@ -15630,11 +15685,11 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>635</v>
-      </c>
-      <c r="B189" t="s">
-        <v>422</v>
+      <c r="A189" s="2">
+        <v>155</v>
+      </c>
+      <c r="B189" s="2">
+        <v>2</v>
       </c>
       <c r="C189" t="s">
         <v>261</v>
@@ -15653,11 +15708,11 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>635</v>
-      </c>
-      <c r="B190" t="s">
-        <v>424</v>
+      <c r="A190" s="2">
+        <v>155</v>
+      </c>
+      <c r="B190" s="2">
+        <v>3</v>
       </c>
       <c r="C190" t="s">
         <v>260</v>
@@ -15676,11 +15731,11 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>638</v>
-      </c>
-      <c r="B191" t="s">
-        <v>417</v>
+      <c r="A191" s="2">
+        <v>156</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1</v>
       </c>
       <c r="C191" t="s">
         <v>264</v>
@@ -15699,11 +15754,11 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>638</v>
-      </c>
-      <c r="B192" t="s">
-        <v>422</v>
+      <c r="A192" s="2">
+        <v>156</v>
+      </c>
+      <c r="B192" s="2">
+        <v>2</v>
       </c>
       <c r="C192" t="s">
         <v>265</v>
@@ -15722,11 +15777,11 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>640</v>
-      </c>
-      <c r="B193" t="s">
-        <v>417</v>
+      <c r="A193" s="2">
+        <v>159</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1</v>
       </c>
       <c r="C193" t="s">
         <v>267</v>
@@ -15745,11 +15800,11 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>640</v>
-      </c>
-      <c r="B194" t="s">
-        <v>422</v>
+      <c r="A194" s="2">
+        <v>159</v>
+      </c>
+      <c r="B194" s="2">
+        <v>2</v>
       </c>
       <c r="C194" t="s">
         <v>268</v>
@@ -15768,11 +15823,11 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>640</v>
-      </c>
-      <c r="B195" t="s">
-        <v>424</v>
+      <c r="A195" s="2">
+        <v>159</v>
+      </c>
+      <c r="B195" s="2">
+        <v>3</v>
       </c>
       <c r="C195" t="s">
         <v>269</v>
@@ -15791,11 +15846,11 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>643</v>
-      </c>
-      <c r="B196" t="s">
-        <v>417</v>
+      <c r="A196" s="2">
+        <v>161</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1</v>
       </c>
       <c r="C196" t="s">
         <v>15</v>
@@ -15814,11 +15869,11 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>645</v>
-      </c>
-      <c r="B197" t="s">
-        <v>417</v>
+      <c r="A197" s="2">
+        <v>162</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1</v>
       </c>
       <c r="C197" t="s">
         <v>272</v>
@@ -15837,11 +15892,11 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>645</v>
-      </c>
-      <c r="B198" t="s">
-        <v>422</v>
+      <c r="A198" s="2">
+        <v>162</v>
+      </c>
+      <c r="B198" s="2">
+        <v>2</v>
       </c>
       <c r="C198" t="s">
         <v>273</v>
@@ -15860,11 +15915,11 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>645</v>
-      </c>
-      <c r="B199" t="s">
-        <v>424</v>
+      <c r="A199" s="2">
+        <v>162</v>
+      </c>
+      <c r="B199" s="2">
+        <v>3</v>
       </c>
       <c r="C199" t="s">
         <v>274</v>
@@ -15883,11 +15938,11 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>648</v>
-      </c>
-      <c r="B200" t="s">
-        <v>417</v>
+      <c r="A200" s="2">
+        <v>164</v>
+      </c>
+      <c r="B200" s="2">
+        <v>1</v>
       </c>
       <c r="C200" t="s">
         <v>276</v>
@@ -15906,11 +15961,11 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>648</v>
-      </c>
-      <c r="B201" t="s">
-        <v>422</v>
+      <c r="A201" s="2">
+        <v>164</v>
+      </c>
+      <c r="B201" s="2">
+        <v>2</v>
       </c>
       <c r="C201" t="s">
         <v>277</v>
@@ -15929,11 +15984,11 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>648</v>
-      </c>
-      <c r="B202" t="s">
-        <v>424</v>
+      <c r="A202" s="2">
+        <v>164</v>
+      </c>
+      <c r="B202" s="2">
+        <v>3</v>
       </c>
       <c r="C202" t="s">
         <v>278</v>
@@ -15952,11 +16007,11 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>650</v>
-      </c>
-      <c r="B203" t="s">
-        <v>417</v>
+      <c r="A203" s="2">
+        <v>165</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1</v>
       </c>
       <c r="C203" t="s">
         <v>280</v>
@@ -15975,11 +16030,11 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>650</v>
-      </c>
-      <c r="B204" t="s">
-        <v>422</v>
+      <c r="A204" s="2">
+        <v>165</v>
+      </c>
+      <c r="B204" s="2">
+        <v>2</v>
       </c>
       <c r="C204" t="s">
         <v>281</v>
@@ -15998,11 +16053,11 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>651</v>
-      </c>
-      <c r="B205" t="s">
-        <v>417</v>
+      <c r="A205" s="2">
+        <v>167</v>
+      </c>
+      <c r="B205" s="2">
+        <v>1</v>
       </c>
       <c r="C205" t="s">
         <v>15</v>
@@ -16021,11 +16076,11 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>652</v>
-      </c>
-      <c r="B206" t="s">
-        <v>417</v>
+      <c r="A206" s="2">
+        <v>168</v>
+      </c>
+      <c r="B206" s="2">
+        <v>1</v>
       </c>
       <c r="C206" t="s">
         <v>284</v>
@@ -16044,11 +16099,11 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>652</v>
-      </c>
-      <c r="B207" t="s">
-        <v>422</v>
+      <c r="A207" s="2">
+        <v>168</v>
+      </c>
+      <c r="B207" s="2">
+        <v>2</v>
       </c>
       <c r="C207" t="s">
         <v>286</v>
@@ -16067,11 +16122,11 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>652</v>
-      </c>
-      <c r="B208" t="s">
-        <v>424</v>
+      <c r="A208" s="2">
+        <v>168</v>
+      </c>
+      <c r="B208" s="2">
+        <v>3</v>
       </c>
       <c r="C208" t="s">
         <v>285</v>
@@ -16090,11 +16145,11 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>654</v>
-      </c>
-      <c r="B209" t="s">
-        <v>417</v>
+      <c r="A209" s="2">
+        <v>169</v>
+      </c>
+      <c r="B209" s="2">
+        <v>1</v>
       </c>
       <c r="C209" t="s">
         <v>15</v>
@@ -16113,11 +16168,11 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>656</v>
-      </c>
-      <c r="B210" t="s">
-        <v>417</v>
+      <c r="A210" s="2">
+        <v>170</v>
+      </c>
+      <c r="B210" s="2">
+        <v>1</v>
       </c>
       <c r="C210" t="s">
         <v>289</v>
@@ -16136,11 +16191,11 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>657</v>
-      </c>
-      <c r="B211" t="s">
-        <v>417</v>
+      <c r="A211" s="2">
+        <v>172</v>
+      </c>
+      <c r="B211" s="2">
+        <v>1</v>
       </c>
       <c r="C211" t="s">
         <v>291</v>
@@ -16159,11 +16214,11 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>657</v>
-      </c>
-      <c r="B212" t="s">
-        <v>422</v>
+      <c r="A212" s="2">
+        <v>172</v>
+      </c>
+      <c r="B212" s="2">
+        <v>2</v>
       </c>
       <c r="C212" t="s">
         <v>292</v>
@@ -16182,11 +16237,11 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>657</v>
-      </c>
-      <c r="B213" t="s">
-        <v>424</v>
+      <c r="A213" s="2">
+        <v>172</v>
+      </c>
+      <c r="B213" s="2">
+        <v>3</v>
       </c>
       <c r="C213" t="s">
         <v>293</v>
@@ -16205,11 +16260,11 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>659</v>
-      </c>
-      <c r="B214" t="s">
-        <v>417</v>
+      <c r="A214" s="2">
+        <v>173</v>
+      </c>
+      <c r="B214" s="2">
+        <v>1</v>
       </c>
       <c r="C214" t="s">
         <v>296</v>
@@ -16228,11 +16283,11 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>659</v>
-      </c>
-      <c r="B215" t="s">
-        <v>422</v>
+      <c r="A215" s="2">
+        <v>173</v>
+      </c>
+      <c r="B215" s="2">
+        <v>2</v>
       </c>
       <c r="C215" t="s">
         <v>295</v>
@@ -16251,11 +16306,11 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>659</v>
-      </c>
-      <c r="B216" t="s">
-        <v>424</v>
+      <c r="A216" s="2">
+        <v>173</v>
+      </c>
+      <c r="B216" s="2">
+        <v>3</v>
       </c>
       <c r="C216" t="s">
         <v>293</v>
@@ -16274,11 +16329,11 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>660</v>
-      </c>
-      <c r="B217" t="s">
-        <v>417</v>
+      <c r="A217" s="2">
+        <v>174</v>
+      </c>
+      <c r="B217" s="2">
+        <v>1</v>
       </c>
       <c r="C217" t="s">
         <v>15</v>
@@ -16297,11 +16352,11 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>661</v>
-      </c>
-      <c r="B218" t="s">
-        <v>417</v>
+      <c r="A218" s="2">
+        <v>175</v>
+      </c>
+      <c r="B218" s="2">
+        <v>1</v>
       </c>
       <c r="C218" t="s">
         <v>299</v>
@@ -16320,11 +16375,11 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>661</v>
-      </c>
-      <c r="B219" t="s">
-        <v>422</v>
+      <c r="A219" s="2">
+        <v>175</v>
+      </c>
+      <c r="B219" s="2">
+        <v>2</v>
       </c>
       <c r="C219" t="s">
         <v>300</v>
@@ -16343,11 +16398,11 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>663</v>
-      </c>
-      <c r="B220" t="s">
-        <v>417</v>
+      <c r="A220" s="2">
+        <v>176</v>
+      </c>
+      <c r="B220" s="2">
+        <v>1</v>
       </c>
       <c r="C220" t="s">
         <v>302</v>
@@ -16366,11 +16421,11 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>664</v>
-      </c>
-      <c r="B221" t="s">
-        <v>417</v>
+      <c r="A221" s="2">
+        <v>179</v>
+      </c>
+      <c r="B221" s="2">
+        <v>1</v>
       </c>
       <c r="C221" t="s">
         <v>304</v>
@@ -16389,11 +16444,11 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>664</v>
-      </c>
-      <c r="B222" t="s">
-        <v>422</v>
+      <c r="A222" s="2">
+        <v>179</v>
+      </c>
+      <c r="B222" s="2">
+        <v>2</v>
       </c>
       <c r="C222" t="s">
         <v>305</v>
@@ -16412,11 +16467,11 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>666</v>
-      </c>
-      <c r="B223" t="s">
-        <v>417</v>
+      <c r="A223" s="2">
+        <v>180</v>
+      </c>
+      <c r="B223" s="2">
+        <v>1</v>
       </c>
       <c r="C223" t="s">
         <v>308</v>
@@ -16435,11 +16490,11 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>666</v>
-      </c>
-      <c r="B224" t="s">
-        <v>422</v>
+      <c r="A224" s="2">
+        <v>180</v>
+      </c>
+      <c r="B224" s="2">
+        <v>2</v>
       </c>
       <c r="C224" t="s">
         <v>307</v>
@@ -16458,11 +16513,11 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>668</v>
-      </c>
-      <c r="B225" t="s">
-        <v>417</v>
+      <c r="A225" s="2">
+        <v>181</v>
+      </c>
+      <c r="B225" s="2">
+        <v>1</v>
       </c>
       <c r="C225" t="s">
         <v>15</v>
@@ -16481,11 +16536,11 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>669</v>
-      </c>
-      <c r="B226" t="s">
-        <v>417</v>
+      <c r="A226" s="2">
+        <v>182</v>
+      </c>
+      <c r="B226" s="2">
+        <v>1</v>
       </c>
       <c r="C226" t="s">
         <v>15</v>
@@ -16504,11 +16559,11 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>671</v>
-      </c>
-      <c r="B227" t="s">
-        <v>417</v>
+      <c r="A227" s="2">
+        <v>183</v>
+      </c>
+      <c r="B227" s="2">
+        <v>1</v>
       </c>
       <c r="C227" t="s">
         <v>312</v>
@@ -16527,11 +16582,11 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>671</v>
-      </c>
-      <c r="B228" t="s">
-        <v>422</v>
+      <c r="A228" s="2">
+        <v>183</v>
+      </c>
+      <c r="B228" s="2">
+        <v>2</v>
       </c>
       <c r="C228" t="s">
         <v>313</v>
@@ -16550,11 +16605,11 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>673</v>
-      </c>
-      <c r="B229" t="s">
-        <v>417</v>
+      <c r="A229" s="2">
+        <v>184</v>
+      </c>
+      <c r="B229" s="2">
+        <v>1</v>
       </c>
       <c r="C229" t="s">
         <v>315</v>
@@ -16573,11 +16628,11 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>673</v>
-      </c>
-      <c r="B230" t="s">
-        <v>422</v>
+      <c r="A230" s="2">
+        <v>184</v>
+      </c>
+      <c r="B230" s="2">
+        <v>2</v>
       </c>
       <c r="C230" t="s">
         <v>316</v>
@@ -16596,11 +16651,11 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>675</v>
-      </c>
-      <c r="B231" t="s">
-        <v>417</v>
+      <c r="A231" s="2">
+        <v>185</v>
+      </c>
+      <c r="B231" s="2">
+        <v>1</v>
       </c>
       <c r="C231" t="s">
         <v>318</v>
@@ -16619,11 +16674,11 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>676</v>
-      </c>
-      <c r="B232" t="s">
-        <v>417</v>
+      <c r="A232" s="2">
+        <v>187</v>
+      </c>
+      <c r="B232" s="2">
+        <v>1</v>
       </c>
       <c r="C232" t="s">
         <v>322</v>
@@ -16642,11 +16697,11 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>676</v>
-      </c>
-      <c r="B233" t="s">
-        <v>422</v>
+      <c r="A233" s="2">
+        <v>187</v>
+      </c>
+      <c r="B233" s="2">
+        <v>2</v>
       </c>
       <c r="C233" t="s">
         <v>320</v>
@@ -16665,11 +16720,11 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>676</v>
-      </c>
-      <c r="B234" t="s">
-        <v>424</v>
+      <c r="A234" s="2">
+        <v>187</v>
+      </c>
+      <c r="B234" s="2">
+        <v>3</v>
       </c>
       <c r="C234" t="s">
         <v>321</v>
@@ -16688,11 +16743,11 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>678</v>
-      </c>
-      <c r="B235" t="s">
-        <v>417</v>
+      <c r="A235" s="2">
+        <v>188</v>
+      </c>
+      <c r="B235" s="2">
+        <v>1</v>
       </c>
       <c r="C235" t="s">
         <v>15</v>
@@ -16711,11 +16766,11 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>680</v>
-      </c>
-      <c r="B236" t="s">
-        <v>417</v>
+      <c r="A236" s="2">
+        <v>189</v>
+      </c>
+      <c r="B236" s="2">
+        <v>1</v>
       </c>
       <c r="C236" t="s">
         <v>15</v>
@@ -16734,11 +16789,11 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>681</v>
-      </c>
-      <c r="B237" t="s">
-        <v>417</v>
+      <c r="A237" s="2">
+        <v>191</v>
+      </c>
+      <c r="B237" s="2">
+        <v>1</v>
       </c>
       <c r="C237" t="s">
         <v>326</v>
@@ -16757,11 +16812,11 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>681</v>
-      </c>
-      <c r="B238" t="s">
-        <v>422</v>
+      <c r="A238" s="2">
+        <v>191</v>
+      </c>
+      <c r="B238" s="2">
+        <v>2</v>
       </c>
       <c r="C238" t="s">
         <v>327</v>
@@ -16780,11 +16835,11 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>683</v>
-      </c>
-      <c r="B239" t="s">
-        <v>417</v>
+      <c r="A239" s="2">
+        <v>192</v>
+      </c>
+      <c r="B239" s="2">
+        <v>1</v>
       </c>
       <c r="C239" t="s">
         <v>15</v>
@@ -16803,11 +16858,11 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>685</v>
-      </c>
-      <c r="B240" t="s">
-        <v>417</v>
+      <c r="A240" s="2">
+        <v>193</v>
+      </c>
+      <c r="B240" s="2">
+        <v>1</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
@@ -16826,11 +16881,11 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>687</v>
-      </c>
-      <c r="B241" t="s">
-        <v>417</v>
+      <c r="A241" s="2">
+        <v>194</v>
+      </c>
+      <c r="B241" s="2">
+        <v>1</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
@@ -16849,11 +16904,11 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>688</v>
-      </c>
-      <c r="B242" t="s">
-        <v>417</v>
+      <c r="A242" s="2">
+        <v>195</v>
+      </c>
+      <c r="B242" s="2">
+        <v>1</v>
       </c>
       <c r="C242" t="s">
         <v>332</v>
@@ -16872,11 +16927,11 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>688</v>
-      </c>
-      <c r="B243" t="s">
-        <v>422</v>
+      <c r="A243" s="2">
+        <v>195</v>
+      </c>
+      <c r="B243" s="2">
+        <v>2</v>
       </c>
       <c r="C243" t="s">
         <v>333</v>
@@ -16895,11 +16950,11 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>690</v>
-      </c>
-      <c r="B244" t="s">
-        <v>417</v>
+      <c r="A244" s="2">
+        <v>196</v>
+      </c>
+      <c r="B244" s="2">
+        <v>1</v>
       </c>
       <c r="C244" t="s">
         <v>15</v>
@@ -16918,11 +16973,11 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>692</v>
-      </c>
-      <c r="B245" t="s">
-        <v>417</v>
+      <c r="A245" s="2">
+        <v>197</v>
+      </c>
+      <c r="B245" s="2">
+        <v>1</v>
       </c>
       <c r="C245" t="s">
         <v>1156</v>
@@ -16941,11 +16996,11 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>692</v>
-      </c>
-      <c r="B246" t="s">
-        <v>422</v>
+      <c r="A246" s="2">
+        <v>197</v>
+      </c>
+      <c r="B246" s="2">
+        <v>2</v>
       </c>
       <c r="C246" t="s">
         <v>337</v>
@@ -16964,11 +17019,11 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>692</v>
-      </c>
-      <c r="B247" t="s">
-        <v>424</v>
+      <c r="A247" s="2">
+        <v>197</v>
+      </c>
+      <c r="B247" s="2">
+        <v>3</v>
       </c>
       <c r="C247" t="s">
         <v>338</v>
@@ -16987,11 +17042,11 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>694</v>
-      </c>
-      <c r="B248" t="s">
-        <v>417</v>
+      <c r="A248" s="2">
+        <v>198</v>
+      </c>
+      <c r="B248" s="2">
+        <v>1</v>
       </c>
       <c r="C248" t="s">
         <v>15</v>
@@ -17010,11 +17065,11 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>695</v>
-      </c>
-      <c r="B249" t="s">
-        <v>417</v>
+      <c r="A249" s="2">
+        <v>199</v>
+      </c>
+      <c r="B249" s="2">
+        <v>1</v>
       </c>
       <c r="C249" t="s">
         <v>15</v>
@@ -17033,11 +17088,11 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>697</v>
-      </c>
-      <c r="B250" t="s">
-        <v>417</v>
+      <c r="A250" s="2">
+        <v>200</v>
+      </c>
+      <c r="B250" s="2">
+        <v>1</v>
       </c>
       <c r="C250" t="s">
         <v>344</v>
@@ -17056,11 +17111,11 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>697</v>
-      </c>
-      <c r="B251" t="s">
-        <v>422</v>
+      <c r="A251" s="2">
+        <v>200</v>
+      </c>
+      <c r="B251" s="2">
+        <v>2</v>
       </c>
       <c r="C251" t="s">
         <v>342</v>
@@ -17079,11 +17134,11 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>697</v>
-      </c>
-      <c r="B252" t="s">
-        <v>424</v>
+      <c r="A252" s="2">
+        <v>200</v>
+      </c>
+      <c r="B252" s="2">
+        <v>3</v>
       </c>
       <c r="C252" t="s">
         <v>343</v>
@@ -17102,11 +17157,11 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>699</v>
-      </c>
-      <c r="B253" t="s">
-        <v>417</v>
+      <c r="A253" s="2">
+        <v>201</v>
+      </c>
+      <c r="B253" s="2">
+        <v>1</v>
       </c>
       <c r="C253" t="s">
         <v>349</v>
@@ -17125,11 +17180,11 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>699</v>
-      </c>
-      <c r="B254" t="s">
-        <v>422</v>
+      <c r="A254" s="2">
+        <v>201</v>
+      </c>
+      <c r="B254" s="2">
+        <v>2</v>
       </c>
       <c r="C254" t="s">
         <v>346</v>
@@ -17148,11 +17203,11 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>699</v>
-      </c>
-      <c r="B255" t="s">
-        <v>424</v>
+      <c r="A255" s="2">
+        <v>201</v>
+      </c>
+      <c r="B255" s="2">
+        <v>3</v>
       </c>
       <c r="C255" t="s">
         <v>347</v>
@@ -17171,11 +17226,11 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>699</v>
-      </c>
-      <c r="B256" t="s">
-        <v>427</v>
+      <c r="A256" s="2">
+        <v>201</v>
+      </c>
+      <c r="B256" s="2">
+        <v>4</v>
       </c>
       <c r="C256" t="s">
         <v>348</v>
@@ -17194,11 +17249,11 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>701</v>
-      </c>
-      <c r="B257" t="s">
-        <v>417</v>
+      <c r="A257" s="2">
+        <v>202</v>
+      </c>
+      <c r="B257" s="2">
+        <v>1</v>
       </c>
       <c r="C257" t="s">
         <v>351</v>
@@ -17217,11 +17272,11 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>701</v>
-      </c>
-      <c r="B258" t="s">
-        <v>422</v>
+      <c r="A258" s="2">
+        <v>202</v>
+      </c>
+      <c r="B258" s="2">
+        <v>2</v>
       </c>
       <c r="C258" t="s">
         <v>352</v>
@@ -17240,11 +17295,11 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>701</v>
-      </c>
-      <c r="B259" t="s">
-        <v>424</v>
+      <c r="A259" s="2">
+        <v>202</v>
+      </c>
+      <c r="B259" s="2">
+        <v>3</v>
       </c>
       <c r="C259" t="s">
         <v>353</v>
@@ -17263,11 +17318,11 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>703</v>
-      </c>
-      <c r="B260" t="s">
-        <v>417</v>
+      <c r="A260" s="2">
+        <v>203</v>
+      </c>
+      <c r="B260" s="2">
+        <v>1</v>
       </c>
       <c r="C260" t="s">
         <v>356</v>
@@ -17286,11 +17341,11 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>703</v>
-      </c>
-      <c r="B261" t="s">
-        <v>422</v>
+      <c r="A261" s="2">
+        <v>203</v>
+      </c>
+      <c r="B261" s="2">
+        <v>2</v>
       </c>
       <c r="C261" t="s">
         <v>355</v>
@@ -17309,11 +17364,11 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>705</v>
-      </c>
-      <c r="B262" t="s">
-        <v>417</v>
+      <c r="A262" s="2">
+        <v>204</v>
+      </c>
+      <c r="B262" s="2">
+        <v>1</v>
       </c>
       <c r="C262" t="s">
         <v>15</v>
@@ -17332,11 +17387,11 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>706</v>
-      </c>
-      <c r="B263" t="s">
-        <v>417</v>
+      <c r="A263" s="2">
+        <v>210</v>
+      </c>
+      <c r="B263" s="2">
+        <v>1</v>
       </c>
       <c r="C263" t="s">
         <v>15</v>
@@ -17355,11 +17410,11 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>708</v>
-      </c>
-      <c r="B264" t="s">
-        <v>417</v>
+      <c r="A264" s="2">
+        <v>211</v>
+      </c>
+      <c r="B264" s="2">
+        <v>1</v>
       </c>
       <c r="C264" t="s">
         <v>15</v>
@@ -17378,11 +17433,11 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>709</v>
-      </c>
-      <c r="B265" t="s">
-        <v>417</v>
+      <c r="A265" s="2">
+        <v>212</v>
+      </c>
+      <c r="B265" s="2">
+        <v>1</v>
       </c>
       <c r="C265" t="s">
         <v>361</v>
@@ -17401,11 +17456,11 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>709</v>
-      </c>
-      <c r="B266" t="s">
-        <v>422</v>
+      <c r="A266" s="2">
+        <v>212</v>
+      </c>
+      <c r="B266" s="2">
+        <v>2</v>
       </c>
       <c r="C266" t="s">
         <v>362</v>
@@ -17424,11 +17479,11 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>709</v>
-      </c>
-      <c r="B267" t="s">
-        <v>424</v>
+      <c r="A267" s="2">
+        <v>212</v>
+      </c>
+      <c r="B267" s="2">
+        <v>3</v>
       </c>
       <c r="C267" t="s">
         <v>363</v>
@@ -17447,11 +17502,11 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>711</v>
-      </c>
-      <c r="B268" t="s">
-        <v>417</v>
+      <c r="A268" s="2">
+        <v>213</v>
+      </c>
+      <c r="B268" s="2">
+        <v>1</v>
       </c>
       <c r="C268" t="s">
         <v>365</v>
@@ -17470,11 +17525,11 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>713</v>
-      </c>
-      <c r="B269" t="s">
-        <v>417</v>
+      <c r="A269" s="2">
+        <v>214</v>
+      </c>
+      <c r="B269" s="2">
+        <v>1</v>
       </c>
       <c r="C269" t="s">
         <v>370</v>
@@ -17493,11 +17548,11 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>713</v>
-      </c>
-      <c r="B270" t="s">
-        <v>422</v>
+      <c r="A270" s="2">
+        <v>214</v>
+      </c>
+      <c r="B270" s="2">
+        <v>2</v>
       </c>
       <c r="C270" t="s">
         <v>369</v>
@@ -17516,11 +17571,11 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>713</v>
-      </c>
-      <c r="B271" t="s">
-        <v>424</v>
+      <c r="A271" s="2">
+        <v>214</v>
+      </c>
+      <c r="B271" s="2">
+        <v>3</v>
       </c>
       <c r="C271" t="s">
         <v>367</v>
@@ -17539,11 +17594,11 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>713</v>
-      </c>
-      <c r="B272" t="s">
-        <v>427</v>
+      <c r="A272" s="2">
+        <v>214</v>
+      </c>
+      <c r="B272" s="2">
+        <v>4</v>
       </c>
       <c r="C272" t="s">
         <v>368</v>
@@ -17562,11 +17617,11 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>715</v>
-      </c>
-      <c r="B273" t="s">
-        <v>417</v>
+      <c r="A273" s="2">
+        <v>215</v>
+      </c>
+      <c r="B273" s="2">
+        <v>1</v>
       </c>
       <c r="C273" t="s">
         <v>15</v>
@@ -17585,11 +17640,11 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>716</v>
-      </c>
-      <c r="B274" t="s">
-        <v>417</v>
+      <c r="A274" s="2">
+        <v>216</v>
+      </c>
+      <c r="B274" s="2">
+        <v>1</v>
       </c>
       <c r="C274" t="s">
         <v>373</v>
@@ -17608,11 +17663,11 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>716</v>
-      </c>
-      <c r="B275" t="s">
-        <v>422</v>
+      <c r="A275" s="2">
+        <v>216</v>
+      </c>
+      <c r="B275" s="2">
+        <v>2</v>
       </c>
       <c r="C275" t="s">
         <v>369</v>
@@ -17631,11 +17686,11 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>717</v>
-      </c>
-      <c r="B276" t="s">
-        <v>417</v>
+      <c r="A276" s="2">
+        <v>219</v>
+      </c>
+      <c r="B276" s="2">
+        <v>1</v>
       </c>
       <c r="C276" t="s">
         <v>375</v>
@@ -17654,11 +17709,11 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>717</v>
-      </c>
-      <c r="B277" t="s">
-        <v>422</v>
+      <c r="A277" s="2">
+        <v>219</v>
+      </c>
+      <c r="B277" s="2">
+        <v>2</v>
       </c>
       <c r="C277" t="s">
         <v>376</v>
@@ -17677,11 +17732,11 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>719</v>
-      </c>
-      <c r="B278" t="s">
-        <v>417</v>
+      <c r="A278" s="2">
+        <v>220</v>
+      </c>
+      <c r="B278" s="2">
+        <v>1</v>
       </c>
       <c r="C278" t="s">
         <v>379</v>
@@ -17700,11 +17755,11 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>719</v>
-      </c>
-      <c r="B279" t="s">
-        <v>422</v>
+      <c r="A279" s="2">
+        <v>220</v>
+      </c>
+      <c r="B279" s="2">
+        <v>2</v>
       </c>
       <c r="C279" t="s">
         <v>380</v>
@@ -17723,11 +17778,11 @@
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>719</v>
-      </c>
-      <c r="B280" t="s">
-        <v>424</v>
+      <c r="A280" s="2">
+        <v>220</v>
+      </c>
+      <c r="B280" s="2">
+        <v>3</v>
       </c>
       <c r="C280" t="s">
         <v>378</v>
@@ -17746,11 +17801,11 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>721</v>
-      </c>
-      <c r="B281" t="s">
-        <v>417</v>
+      <c r="A281" s="2">
+        <v>221</v>
+      </c>
+      <c r="B281" s="2">
+        <v>1</v>
       </c>
       <c r="C281" t="s">
         <v>384</v>
@@ -17769,11 +17824,11 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>721</v>
-      </c>
-      <c r="B282" t="s">
-        <v>422</v>
+      <c r="A282" s="2">
+        <v>221</v>
+      </c>
+      <c r="B282" s="2">
+        <v>2</v>
       </c>
       <c r="C282" t="s">
         <v>383</v>
@@ -17792,11 +17847,11 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>721</v>
-      </c>
-      <c r="B283" t="s">
-        <v>424</v>
+      <c r="A283" s="2">
+        <v>221</v>
+      </c>
+      <c r="B283" s="2">
+        <v>3</v>
       </c>
       <c r="C283" t="s">
         <v>382</v>
@@ -17815,11 +17870,11 @@
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>722</v>
-      </c>
-      <c r="B284" t="s">
-        <v>417</v>
+      <c r="A284" s="2">
+        <v>222</v>
+      </c>
+      <c r="B284" s="2">
+        <v>1</v>
       </c>
       <c r="C284" t="s">
         <v>15</v>
@@ -17838,11 +17893,11 @@
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>723</v>
-      </c>
-      <c r="B285" t="s">
-        <v>417</v>
+      <c r="A285" s="2">
+        <v>223</v>
+      </c>
+      <c r="B285" s="2">
+        <v>1</v>
       </c>
       <c r="C285" t="s">
         <v>387</v>
@@ -17861,11 +17916,11 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>724</v>
-      </c>
-      <c r="B286" t="s">
-        <v>417</v>
+      <c r="A286" s="2">
+        <v>300</v>
+      </c>
+      <c r="B286" s="2">
+        <v>1</v>
       </c>
       <c r="C286" t="s">
         <v>389</v>
@@ -17884,11 +17939,11 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>724</v>
-      </c>
-      <c r="B287" t="s">
-        <v>422</v>
+      <c r="A287" s="2">
+        <v>300</v>
+      </c>
+      <c r="B287" s="2">
+        <v>2</v>
       </c>
       <c r="C287" t="s">
         <v>390</v>
@@ -17907,11 +17962,11 @@
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>726</v>
-      </c>
-      <c r="B288" t="s">
-        <v>417</v>
+      <c r="A288" s="2">
+        <v>301</v>
+      </c>
+      <c r="B288" s="2">
+        <v>1</v>
       </c>
       <c r="C288" t="s">
         <v>392</v>
@@ -17930,11 +17985,11 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>726</v>
-      </c>
-      <c r="B289" t="s">
-        <v>422</v>
+      <c r="A289" s="2">
+        <v>301</v>
+      </c>
+      <c r="B289" s="2">
+        <v>2</v>
       </c>
       <c r="C289" t="s">
         <v>393</v>
@@ -17953,11 +18008,11 @@
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>728</v>
-      </c>
-      <c r="B290" t="s">
-        <v>417</v>
+      <c r="A290" s="2">
+        <v>302</v>
+      </c>
+      <c r="B290" s="2">
+        <v>1</v>
       </c>
       <c r="C290" t="s">
         <v>395</v>
@@ -17976,11 +18031,11 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>728</v>
-      </c>
-      <c r="B291" t="s">
-        <v>422</v>
+      <c r="A291" s="2">
+        <v>302</v>
+      </c>
+      <c r="B291" s="2">
+        <v>2</v>
       </c>
       <c r="C291" t="s">
         <v>396</v>
@@ -17999,11 +18054,11 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>730</v>
-      </c>
-      <c r="B292" t="s">
-        <v>417</v>
+      <c r="A292" s="2">
+        <v>303</v>
+      </c>
+      <c r="B292" s="2">
+        <v>1</v>
       </c>
       <c r="C292" t="s">
         <v>399</v>
@@ -18022,11 +18077,11 @@
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>730</v>
-      </c>
-      <c r="B293" t="s">
-        <v>422</v>
+      <c r="A293" s="2">
+        <v>303</v>
+      </c>
+      <c r="B293" s="2">
+        <v>2</v>
       </c>
       <c r="C293" t="s">
         <v>398</v>
@@ -18045,11 +18100,11 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>731</v>
-      </c>
-      <c r="B294" t="s">
-        <v>417</v>
+      <c r="A294" s="2">
+        <v>304</v>
+      </c>
+      <c r="B294" s="2">
+        <v>1</v>
       </c>
       <c r="C294" t="s">
         <v>401</v>
@@ -18068,11 +18123,11 @@
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>731</v>
-      </c>
-      <c r="B295" t="s">
-        <v>422</v>
+      <c r="A295" s="2">
+        <v>304</v>
+      </c>
+      <c r="B295" s="2">
+        <v>2</v>
       </c>
       <c r="C295" t="s">
         <v>402</v>
@@ -18091,11 +18146,11 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>733</v>
-      </c>
-      <c r="B296" t="s">
-        <v>417</v>
+      <c r="A296" s="2">
+        <v>305</v>
+      </c>
+      <c r="B296" s="2">
+        <v>1</v>
       </c>
       <c r="C296" t="s">
         <v>404</v>
@@ -18114,11 +18169,11 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>733</v>
-      </c>
-      <c r="B297" t="s">
-        <v>422</v>
+      <c r="A297" s="2">
+        <v>305</v>
+      </c>
+      <c r="B297" s="2">
+        <v>2</v>
       </c>
       <c r="C297" t="s">
         <v>405</v>
@@ -18137,11 +18192,11 @@
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>735</v>
-      </c>
-      <c r="B298" t="s">
-        <v>417</v>
+      <c r="A298" s="2">
+        <v>306</v>
+      </c>
+      <c r="B298" s="2">
+        <v>1</v>
       </c>
       <c r="C298" t="s">
         <v>408</v>
@@ -18160,11 +18215,11 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>735</v>
-      </c>
-      <c r="B299" t="s">
-        <v>422</v>
+      <c r="A299" s="2">
+        <v>306</v>
+      </c>
+      <c r="B299" s="2">
+        <v>2</v>
       </c>
       <c r="C299" t="s">
         <v>407</v>
@@ -18180,6 +18235,69 @@
       </c>
       <c r="G299" t="s">
         <v>1242</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B302" s="1">
+        <f>COUNTIF(B2:B299,"=2")</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B303" s="1">
+        <f>COUNTIF(B3:B300,"=3")</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B304" s="1">
+        <f>COUNTIF(B4:B301,"=4")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B306" s="1">
+        <f>B302-B303-B304</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B307" s="1">
+        <f>B303-B304</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B308" s="1">
+        <f>B304</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B309" s="3">
+        <f>POWER(2,B306)*POWER(3,B307)*POWER(4,B308)</f>
+        <v>1.1590640322254385E+29</v>
       </c>
     </row>
   </sheetData>
@@ -18189,10 +18307,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2D8766-DE05-7C4E-8D25-CB6041866D77}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18202,7 +18320,7 @@
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1243</v>
       </c>
@@ -18215,8 +18333,11 @@
       <c r="D1" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>417</v>
       </c>
@@ -18230,7 +18351,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>422</v>
       </c>
@@ -18243,8 +18364,11 @@
       <c r="D3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>424</v>
       </c>
@@ -18257,8 +18381,11 @@
       <c r="D4" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>427</v>
       </c>
@@ -18271,8 +18398,11 @@
       <c r="D5" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>429</v>
       </c>
@@ -18285,8 +18415,11 @@
       <c r="D6" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>432</v>
       </c>
@@ -18299,8 +18432,11 @@
       <c r="D7" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>434</v>
       </c>
@@ -18313,8 +18449,11 @@
       <c r="D8" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>436</v>
       </c>
@@ -18327,8 +18466,11 @@
       <c r="D9" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>438</v>
       </c>
@@ -18341,8 +18483,11 @@
       <c r="D10" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>441</v>
       </c>
@@ -18355,8 +18500,11 @@
       <c r="D11" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>443</v>
       </c>
@@ -18369,8 +18517,11 @@
       <c r="D12" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>445</v>
       </c>
@@ -18383,8 +18534,11 @@
       <c r="D13" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>447</v>
       </c>
@@ -18397,8 +18551,11 @@
       <c r="D14" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -18411,8 +18568,11 @@
       <c r="D15" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1248</v>
       </c>
@@ -18425,8 +18585,11 @@
       <c r="D16" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>452</v>
       </c>
@@ -18439,8 +18602,11 @@
       <c r="D17" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>454</v>
       </c>
@@ -18453,8 +18619,11 @@
       <c r="D18" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>456</v>
       </c>
@@ -18466,6 +18635,9 @@
       </c>
       <c r="D19" t="s">
         <v>422</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
